--- a/DAM_Meal_Dataset.xlsx
+++ b/DAM_Meal_Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/LBS/Courses/Decision Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/LBS/Courses/Decision Analytics/Assignment/GurobiSupermarket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F0BF8-6D64-484F-BDB8-CACDB4F8FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28986F63-17D6-5A43-82AC-3176B9D64D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="2180" windowWidth="22340" windowHeight="17440" xr2:uid="{989DC5D0-15DE-344F-BC9D-6C0FBE76A863}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -722,7 +722,9 @@
       <c r="I3" s="2">
         <v>10.6</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>6.2</v>
+      </c>
       <c r="K3" s="2">
         <v>40.200000000000003</v>
       </c>
